--- a/Saint Petersburg Venues Clastering Analysis/data_sources/n_income_stats_09-2018.xlsx
+++ b/Saint Petersburg Venues Clastering Analysis/data_sources/n_income_stats_09-2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou\Documents\GitLocal\data-analysis\Saint Petersburg Venues Clastering Analysis\data_sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEF7091-F0D6-4436-B9E6-5738D4735D51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA558F0D-7A1C-4878-90D5-88FB74282F58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="735" windowWidth="10620" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="465" windowWidth="11055" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Адмиралтейский</t>
   </si>
@@ -79,19 +79,37 @@
   </si>
   <si>
     <t>Центральный</t>
+  </si>
+  <si>
+    <t>Dnumber</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>RentCost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,10 +129,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -123,9 +142,25 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{2C0CACA3-D098-43C5-93DE-ADCC1C8E96A4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -403,251 +438,299 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2">
-        <v>81481</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>71982</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>81481</v>
+      </c>
+      <c r="D2">
+        <v>1408.8</v>
+      </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>64784</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>71982</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4684.6000000000004</v>
+      </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>61920</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>64784</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1121.0999999999999</v>
+      </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2">
-        <v>60380</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>61920</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1065.7</v>
+      </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>55949</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>60380</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1055.7</v>
+      </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>59378</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>55949</v>
+      </c>
+      <c r="D7" s="7">
+        <v>315.5</v>
+      </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2">
-        <v>55923</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>59378</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1011.6</v>
+      </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2">
-        <v>51136</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>55923</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1436.2</v>
+      </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2">
-        <v>62644</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>51136</v>
+      </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2">
-        <v>73386</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>62644</v>
+      </c>
+      <c r="D11" s="10">
+        <v>600.29999999999995</v>
+      </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2">
-        <v>56042</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>73386</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1363.1</v>
+      </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2">
-        <v>89752</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>56042</v>
+      </c>
+      <c r="D13" s="12">
+        <v>1273.0999999999999</v>
+      </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2">
-        <v>56741</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>89752</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1664.3</v>
+      </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2">
-        <v>65833</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>56741</v>
+      </c>
+      <c r="D15" s="14">
+        <v>814.4</v>
+      </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2">
-        <v>58602</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>65833</v>
+      </c>
+      <c r="D16" s="15">
+        <v>1296.3</v>
+      </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2">
-        <v>56098</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>58602</v>
+      </c>
+      <c r="D17" s="16">
+        <v>1193.7</v>
+      </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2">
+        <v>56098</v>
+      </c>
+      <c r="D18" s="17">
+        <v>1362.5</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C19" s="2">
         <v>76728</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="D19" s="18">
+        <v>2352</v>
+      </c>
+      <c r="E19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
